--- a/assets/claim.xlsx
+++ b/assets/claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B6836F-08AB-4F67-AA4D-7B88DC7B85D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2890E0-7208-48A6-8E1B-A4AE4813D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,14 +652,59 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -667,74 +712,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,8 +1092,8 @@
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="37"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -1133,75 +1133,75 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="69"/>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="70"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="31"/>
       <c r="E15" s="30"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="31"/>
       <c r="E16" s="27"/>
       <c r="F16" s="38"/>
@@ -1216,173 +1216,173 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="31"/>
       <c r="E18" s="27"/>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
       <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="31"/>
       <c r="E24" s="27"/>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="49"/>
       <c r="E26" s="40"/>
       <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="75"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="31"/>
       <c r="E27" s="30"/>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="31"/>
       <c r="E28" s="27"/>
       <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="31"/>
       <c r="E29" s="27"/>
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="42"/>
       <c r="E30" s="27"/>
       <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="31"/>
       <c r="E31" s="27"/>
       <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="31"/>
       <c r="E33" s="27"/>
       <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="75"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="31"/>
       <c r="E34" s="27"/>
       <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
       <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="31"/>
       <c r="E36" s="27"/>
       <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="12"/>
       <c r="F37" s="41"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="36"/>
       <c r="F38" s="9"/>
     </row>
@@ -1482,6 +1482,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -1498,31 +1523,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,8 +1575,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="37"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -1624,70 +1624,70 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="69"/>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="70"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="57"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="12"/>
       <c r="F15" s="50">
         <f>SUM(F11:F14)</f>
@@ -1695,12 +1695,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="36"/>
       <c r="F16" s="9"/>
     </row>
@@ -1799,7 +1799,7 @@
       <c r="F33" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A3:B3"/>
@@ -1808,6 +1808,12 @@
     <mergeCell ref="D9:E10"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
